--- a/Question/FrameWorks/Anguler/Anguler_I.xlsx
+++ b/Question/FrameWorks/Anguler/Anguler_I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\FrameWorks\Anguler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99756A23-1F46-4E15-A7E6-BCA88AA1A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D1462E-1CBB-4CB6-AF57-FCF1CD1E69DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5460" yWindow="3360" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
